--- a/Analyzed/try8/data_2020.xlsx
+++ b/Analyzed/try8/data_2020.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AI11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,72 +440,97 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>caseA_rank</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>caseC_rank</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>caseZ_rank</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>Rank</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>caseA_rankdif</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>caseB_rankdif</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>caseC_rankdif</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>caseD_rankdif</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>caseX_rankdif</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>caseY_rankdif</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>caseZ_rankdif</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>ACXZcomb</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>AXcomb</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>AZcomb</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>CXcomb</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>CZcomb</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>XZcomb</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>AZhapdif</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>CZhapdif</t>
         </is>
       </c>
     </row>
@@ -540,13 +565,13 @@
         <v>62.58</v>
       </c>
       <c r="J2">
-        <v>588.2</v>
+        <v>914.78227</v>
       </c>
       <c r="K2">
         <v>2083.235</v>
       </c>
       <c r="L2">
-        <v>567</v>
+        <v>990.37225</v>
       </c>
       <c r="M2">
         <v>61.93832664966254</v>
@@ -558,49 +583,64 @@
         <v>-160.03</v>
       </c>
       <c r="P2">
-        <v>378.8813657004507</v>
+        <v>493.3681486536499</v>
       </c>
       <c r="Q2">
         <v>1</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
         <v>6</v>
       </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>3</v>
-      </c>
-      <c r="X2">
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>3</v>
+      </c>
+      <c r="AA2">
         <v>5</v>
       </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>2</v>
-      </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>2</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <v>2</v>
+      </c>
+      <c r="AI2">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -634,13 +674,13 @@
         <v>55.6</v>
       </c>
       <c r="J3">
-        <v>539.2</v>
+        <v>845.6803000000001</v>
       </c>
       <c r="K3">
         <v>1748.681</v>
       </c>
       <c r="L3">
-        <v>544.3199999999999</v>
+        <v>969.4730499999999</v>
       </c>
       <c r="M3">
         <v>56.05857024695796</v>
@@ -652,48 +692,63 @@
         <v>-171.96</v>
       </c>
       <c r="P3">
-        <v>487.8012901900939</v>
+        <v>639.8224174357732</v>
       </c>
       <c r="Q3">
         <v>3</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
         <v>6</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
         <v>6</v>
       </c>
-      <c r="V3">
+      <c r="Y3">
         <v>5</v>
       </c>
-      <c r="W3">
-        <v>3</v>
-      </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
       <c r="Z3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA3">
         <v>1</v>
       </c>
       <c r="AB3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC3">
         <v>1</v>
       </c>
       <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
         <v>1</v>
       </c>
     </row>
@@ -728,13 +783,13 @@
         <v>55.91</v>
       </c>
       <c r="J4">
-        <v>555</v>
+        <v>913.9720100000001</v>
       </c>
       <c r="K4">
         <v>1245.797</v>
       </c>
       <c r="L4">
-        <v>549.15</v>
+        <v>991.67705</v>
       </c>
       <c r="M4">
         <v>52.68893745595108</v>
@@ -746,49 +801,64 @@
         <v>-143.28</v>
       </c>
       <c r="P4">
-        <v>542.4060303713729</v>
+        <v>712.250683296631</v>
       </c>
       <c r="Q4">
         <v>2</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
         <v>8</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
         <v>8</v>
       </c>
-      <c r="V4">
-        <v>3</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
       <c r="Y4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>1</v>
       </c>
       <c r="AB4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC4">
         <v>1</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -822,13 +892,13 @@
         <v>53.48999999999999</v>
       </c>
       <c r="J5">
-        <v>535.2</v>
+        <v>741.6165000000001</v>
       </c>
       <c r="K5">
         <v>2005.108</v>
       </c>
       <c r="L5">
-        <v>519.96</v>
+        <v>786.9204</v>
       </c>
       <c r="M5">
         <v>61.53805321979051</v>
@@ -840,49 +910,64 @@
         <v>-217.22</v>
       </c>
       <c r="P5">
-        <v>429.6269600996957</v>
+        <v>560.1495523883775</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T5">
         <v>3</v>
       </c>
       <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5">
         <v>5</v>
-      </c>
-      <c r="V5">
-        <v>4</v>
-      </c>
-      <c r="W5">
-        <v>7</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
       </c>
       <c r="Y5">
         <v>4</v>
       </c>
       <c r="Z5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AA5">
         <v>1</v>
       </c>
       <c r="AB5">
+        <v>3</v>
+      </c>
+      <c r="AC5">
+        <v>3</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>3</v>
+      </c>
+      <c r="AF5">
+        <v>2</v>
+      </c>
+      <c r="AG5">
         <v>4</v>
       </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>4</v>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -916,13 +1001,13 @@
         <v>52.24</v>
       </c>
       <c r="J6">
-        <v>538.6</v>
+        <v>779.7355500000001</v>
       </c>
       <c r="K6">
         <v>1963.888</v>
       </c>
       <c r="L6">
-        <v>524.37</v>
+        <v>819.37345</v>
       </c>
       <c r="M6">
         <v>70.2733679654152</v>
@@ -934,48 +1019,63 @@
         <v>-184.84</v>
       </c>
       <c r="P6">
-        <v>368.5248067087481</v>
+        <v>477.7227622684798</v>
       </c>
       <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6">
         <v>5</v>
       </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
       <c r="S6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>2</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>2</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AI6">
         <v>2</v>
       </c>
     </row>
@@ -1010,13 +1110,13 @@
         <v>41.67</v>
       </c>
       <c r="J7">
-        <v>512.4</v>
+        <v>691.01716</v>
       </c>
       <c r="K7">
         <v>1964.677</v>
       </c>
       <c r="L7">
-        <v>479.01</v>
+        <v>710.6806</v>
       </c>
       <c r="M7">
         <v>77.2351675284698</v>
@@ -1028,49 +1128,64 @@
         <v>-147.95</v>
       </c>
       <c r="P7">
-        <v>383.3063669281716</v>
+        <v>500.6901205969298</v>
       </c>
       <c r="Q7">
+        <v>7</v>
+      </c>
+      <c r="R7">
+        <v>7</v>
+      </c>
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
         <v>6</v>
       </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <v>2</v>
-      </c>
-      <c r="T7">
-        <v>2</v>
-      </c>
       <c r="U7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>3</v>
+      </c>
+      <c r="Y7">
         <v>4</v>
       </c>
-      <c r="W7">
-        <v>3</v>
-      </c>
-      <c r="X7">
-        <v>1</v>
-      </c>
-      <c r="Y7">
-        <v>2</v>
-      </c>
       <c r="Z7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA7">
         <v>1</v>
       </c>
       <c r="AB7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>2</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>2</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1104,13 +1219,13 @@
         <v>45.37</v>
       </c>
       <c r="J8">
-        <v>515.2</v>
+        <v>739.95788</v>
       </c>
       <c r="K8">
         <v>1857.414</v>
       </c>
       <c r="L8">
-        <v>511.77</v>
+        <v>840.72135</v>
       </c>
       <c r="M8">
         <v>67.54674771564655</v>
@@ -1122,40 +1237,40 @@
         <v>-167.3</v>
       </c>
       <c r="P8">
-        <v>428.5369726844185</v>
+        <v>560.7188341304259</v>
       </c>
       <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <v>3</v>
+      </c>
+      <c r="T8">
         <v>7</v>
       </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
       <c r="U8">
         <v>1</v>
       </c>
       <c r="V8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z8">
         <v>2</v>
       </c>
       <c r="AA8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB8">
         <v>2</v>
@@ -1164,7 +1279,22 @@
         <v>2</v>
       </c>
       <c r="AD8">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AE8">
+        <v>2</v>
+      </c>
+      <c r="AF8">
+        <v>3</v>
+      </c>
+      <c r="AG8">
+        <v>2</v>
+      </c>
+      <c r="AH8">
+        <v>3</v>
+      </c>
+      <c r="AI8">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1198,13 +1328,13 @@
         <v>43.16</v>
       </c>
       <c r="J9">
-        <v>492.6</v>
+        <v>523.35303</v>
       </c>
       <c r="K9">
         <v>1954.861</v>
       </c>
       <c r="L9">
-        <v>525.63</v>
+        <v>634.4688</v>
       </c>
       <c r="M9">
         <v>74.85369901496183</v>
@@ -1216,49 +1346,64 @@
         <v>-127.94</v>
       </c>
       <c r="P9">
-        <v>375.0157710313206</v>
+        <v>488.2403036911677</v>
       </c>
       <c r="Q9">
+        <v>9</v>
+      </c>
+      <c r="R9">
         <v>8</v>
       </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
       <c r="S9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T9">
+        <v>8</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
         <v>4</v>
       </c>
-      <c r="U9">
-        <v>4</v>
-      </c>
-      <c r="V9">
+      <c r="Y9">
         <v>5</v>
       </c>
-      <c r="W9">
+      <c r="Z9">
         <v>7</v>
       </c>
-      <c r="X9">
-        <v>1</v>
-      </c>
-      <c r="Y9">
-        <v>2</v>
-      </c>
-      <c r="Z9">
-        <v>5</v>
-      </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>2</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1292,13 +1437,13 @@
         <v>26.62</v>
       </c>
       <c r="J10">
-        <v>468.8</v>
+        <v>525.96542</v>
       </c>
       <c r="K10">
         <v>1800.786</v>
       </c>
       <c r="L10">
-        <v>442.47</v>
+        <v>462.81095</v>
       </c>
       <c r="M10">
         <v>77.31847271974382</v>
@@ -1310,32 +1455,32 @@
         <v>-187.38</v>
       </c>
       <c r="P10">
-        <v>350.9109514305279</v>
+        <v>456.8160840092308</v>
       </c>
       <c r="Q10">
+        <v>8</v>
+      </c>
+      <c r="R10">
         <v>9</v>
       </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
       <c r="S10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
         <v>7</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>1</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
       <c r="Y10">
         <v>0</v>
       </c>
@@ -1346,13 +1491,28 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10">
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1386,13 +1546,13 @@
         <v>19.22</v>
       </c>
       <c r="J11">
-        <v>427</v>
+        <v>312.53811</v>
       </c>
       <c r="K11">
         <v>2138.842</v>
       </c>
       <c r="L11">
-        <v>409.29</v>
+        <v>328.4057</v>
       </c>
       <c r="M11">
         <v>92.88263513308729</v>
@@ -1404,35 +1564,35 @@
         <v>-207.95</v>
       </c>
       <c r="P11">
-        <v>319.1726635380969</v>
+        <v>413.7417804670787</v>
       </c>
       <c r="Q11">
         <v>10</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S11">
+        <v>10</v>
+      </c>
+      <c r="T11">
+        <v>10</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
         <v>9</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
         <v>9</v>
       </c>
-      <c r="V11">
+      <c r="Y11">
         <v>4</v>
       </c>
-      <c r="W11">
-        <v>1</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
       <c r="Z11">
         <v>1</v>
       </c>
@@ -1440,13 +1600,28 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11">
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
